--- a/Data_clean/MCAS/Estados_US/Edos_USA_2010/NEW_HAMPSHIRE_2010.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2010/NEW_HAMPSHIRE_2010.xlsx
@@ -360,45 +360,41 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio de Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TIJUANA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Tijuana</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -407,71 +403,55 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ARRIAGA</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Arriaga</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>EL PORVENIR</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>El Porvenir</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>TECPATAN</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Tecpatan</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -480,54 +460,42 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.9700000000000001E-2</t>
-        </is>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0.0297</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>COLIMA</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.9700000000000001E-2</t>
-        </is>
+          <t>Colima</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0.0297</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>MANZANILLO</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.18809999999999999</t>
-        </is>
+          <t>Manzanillo</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>0.1881</v>
       </c>
     </row>
     <row r="10">
@@ -536,37 +504,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.21779999999999999</t>
-        </is>
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>0.2178</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DISTRITO FEDERAL</t>
+          <t>Distrito Federal</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.9700000000000001E-2</t>
-        </is>
+          <t>Gustavo A. Madero</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>0.0297</v>
       </c>
     </row>
     <row r="12">
@@ -575,54 +535,42 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.9700000000000001E-2</t>
-        </is>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>0.0297</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DURANGO</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Durango</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>9.9000000000000005E-2</t>
-        </is>
+          <t>Vicente Guerrero</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>0.099</v>
       </c>
     </row>
     <row r="15">
@@ -631,88 +579,68 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.1089</t>
-        </is>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>0.1089</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CELAYA</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Celaya</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>CORTAZAR</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Cortazar</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>SALVATIERRA</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5.9400000000000001E-2</t>
-        </is>
+          <t>Salvatierra</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>0.0594</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>VALLE DE SANTIAGO</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Valle De Santiago</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -721,105 +649,81 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>8.9099999999999999E-2</t>
-        </is>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>0.0891</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ACAPULCO DE JUAREZ</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.9600000000000003E-2</t>
-        </is>
+          <t>Acapulco De Juarez</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>0.0396</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>AHUACUOTZINGO</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Ahuacuotzingo</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>ALPOYECA</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Alpoyeca</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>GENERAL CANUTO A. NERI</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>General Canuto A. Neri</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>MARTIR DE CUILAPAN</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Martir De Cuilapan</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -828,71 +732,55 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>7.9200000000000007E-2</t>
-        </is>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>0.07920000000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HUICHAPAN</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Huichapan</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>PROGRESO DE OBREGON</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.9800000000000002E-2</t>
-        </is>
+          <t>Progreso De Obregon</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>0.0198</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>SAN BARTOLO TUTOTEPEC</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>San Bartolo Tutotepec</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -901,71 +789,55 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3.9600000000000003E-2</t>
-        </is>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>0.0396</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CUAUTITLAN DE GARCIA BARRAGAN</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.9800000000000002E-2</t>
-        </is>
+          <t>Cuautitlan De Garcia Barragan</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>0.0198</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2.9700000000000001E-2</t>
-        </is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>0.0297</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>TEUCHITLAN</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Teuchitlan</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -974,71 +846,55 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>5.9400000000000001E-2</t>
-        </is>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>0.0594</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NAUCALPAN DE JUAREZ</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Naucalpan De Juarez</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>TEOTIHUACAN</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Teotihuacan</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>TULTITLAN</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Tultitlan</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1047,88 +903,68 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2.9700000000000001E-2</t>
-        </is>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>0.0297</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MICHOACAN DE OCAMPO</t>
+          <t>Michoacan De Ocampo</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>APATZINGAN</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Apatzingan</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>CARACUARO</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Caracuaro</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>COAHUAYANA</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Coahuayana</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>MARAVATIO</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2.9700000000000001E-2</t>
-        </is>
+          <t>Maravatio</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>0.0297</v>
       </c>
     </row>
     <row r="43">
@@ -1137,37 +973,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>5.9400000000000001E-2</t>
-        </is>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>0.0594</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>NAYARIT</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>COMPOSTELA</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Compostela</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="45">
@@ -1176,54 +1004,42 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>OAXACA DE JUAREZ</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Oaxaca De Juarez</t>
+        </is>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TOMALTEPEC</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Santo Domingo Tomaltepec</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="48">
@@ -1232,54 +1048,42 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>1.9800000000000002E-2</t>
-        </is>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>0.0198</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ATLIXCO</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Atlixco</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>TEPEXI DE RODRIGUEZ</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Tepexi De Rodriguez</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="51">
@@ -1288,54 +1092,42 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>1.9800000000000002E-2</t>
-        </is>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>0.0198</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>QUERETARO DE ARTEAGA</t>
+          <t>Queretaro De Arteaga</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>LANDA DE MATAMOROS</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Landa De Matamoros</t>
+        </is>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>QUERETARO</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Queretaro</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="54">
@@ -1344,37 +1136,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>1.9800000000000002E-2</t>
-        </is>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>0.0198</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSI</t>
+          <t>San Luis Potosi</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CIUDAD VALLES</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1.9800000000000002E-2</t>
-        </is>
+          <t>Ciudad Valles</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>0.0198</v>
       </c>
     </row>
     <row r="56">
@@ -1383,37 +1167,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1.9800000000000002E-2</t>
-        </is>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>0.0198</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GUASAVE</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Guasave</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1422,37 +1198,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>1.9800000000000002E-2</t>
-        </is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>0.0198</v>
       </c>
     </row>
     <row r="60">
@@ -1461,37 +1229,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>1.9800000000000002E-2</t>
-        </is>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>0.0198</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TAMPICO ALTO</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Tampico Alto</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="62">
@@ -1500,54 +1260,42 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NORIA DE ANGELES</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>9.9000000000000008E-3</t>
-        </is>
+          <t>Noria De Angeles</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>SOMBRERETE</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.1089</t>
-        </is>
+          <t>Sombrerete</t>
+        </is>
+      </c>
+      <c r="C64">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <v>0.1089</v>
       </c>
     </row>
     <row r="65">
@@ -1556,21 +1304,17 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.1188</t>
-        </is>
+      <c r="C65">
+        <v>12</v>
+      </c>
+      <c r="D65">
+        <v>0.1188</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1578,15 +1322,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C66">
+        <v>101</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2010/NEW_HAMPSHIRE_2010.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2010/NEW_HAMPSHIRE_2010.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Tecpatan</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Manzanillo</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -605,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -618,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -631,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -644,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -675,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -688,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Alpoyeca</t>
@@ -701,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>General Canuto A. Neri</t>
@@ -714,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Martir De Cuilapan</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -758,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Progreso De Obregon</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>San Bartolo Tutotepec</t>
@@ -784,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Total</t>
@@ -815,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -828,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Teuchitlan</t>
@@ -841,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Total</t>
@@ -872,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Teotihuacan</t>
@@ -885,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Tultitlan</t>
@@ -898,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
@@ -929,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Caracuaro</t>
@@ -942,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Coahuayana</t>
@@ -955,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Maravatio</t>
@@ -968,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -999,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1030,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Santo Domingo Tomaltepec</t>
@@ -1043,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1074,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Tepexi De Rodriguez</t>
@@ -1087,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1118,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Queretaro</t>
@@ -1131,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1162,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1193,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1224,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1255,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1286,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -1299,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Total</t>
